--- a/template_examples/normal_blood_dna_template.xlsx
+++ b/template_examples/normal_blood_dna_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE8450D-1D1F-924E-9AD7-9243D31119C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CDEB29-E6E8-6543-A1B3-BA9B5B9861D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4540" yWindow="25240" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="111">
   <si>
     <t>#t</t>
   </si>
@@ -768,24 +768,6 @@
     <t>Date received</t>
   </si>
   <si>
-    <t>TTTPP101</t>
-  </si>
-  <si>
-    <t>TTTPP102</t>
-  </si>
-  <si>
-    <t>TTTPP103</t>
-  </si>
-  <si>
-    <t>TTTPP201</t>
-  </si>
-  <si>
-    <t>TTTPP202</t>
-  </si>
-  <si>
-    <t>TTTPP203</t>
-  </si>
-  <si>
     <t>test_prism_trial_id</t>
   </si>
   <si>
@@ -880,6 +862,12 @@
   </si>
   <si>
     <t>MDA_Bernatchez</t>
+  </si>
+  <si>
+    <t>TTTPP1</t>
+  </si>
+  <si>
+    <t>TTTPP2</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1492,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1506,7 +1494,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1534,7 +1522,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1548,7 +1536,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1604,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2721,8 +2709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH202"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2842,31 +2830,31 @@
         <v>35</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="R2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="W2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="X2" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="U2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="Y2" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>36</v>
@@ -2910,7 +2898,7 @@
         <v>52</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
         <v>53</v>
@@ -2919,7 +2907,7 @@
         <v>54</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -2931,10 +2919,10 @@
         <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N3" t="s">
         <v>57</v>
@@ -2949,19 +2937,19 @@
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="S3" s="7">
         <v>1</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="U3" s="7">
         <v>1</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="W3" s="10">
         <v>9</v>
@@ -2994,7 +2982,7 @@
         <v>75</v>
       </c>
       <c r="AG3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s">
         <v>62</v>
@@ -3011,10 +2999,10 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -3023,7 +3011,7 @@
         <v>54</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -3035,10 +3023,10 @@
         <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N4" t="s">
         <v>57</v>
@@ -3053,7 +3041,7 @@
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="S4" s="7">
         <v>2</v>
@@ -3065,7 +3053,7 @@
         <v>2</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="W4" s="11">
         <v>9</v>
@@ -3098,7 +3086,7 @@
         <v>75</v>
       </c>
       <c r="AG4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AH4" t="s">
         <v>66</v>
@@ -3117,8 +3105,8 @@
       <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>79</v>
+      <c r="E5" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
@@ -3127,7 +3115,7 @@
         <v>54</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -3139,10 +3127,10 @@
         <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N5" t="s">
         <v>57</v>
@@ -3157,19 +3145,19 @@
         <v>3</v>
       </c>
       <c r="R5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="S5" s="7">
         <v>3</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="U5" s="7">
         <v>3</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="W5" s="10">
         <v>8</v>
@@ -3202,7 +3190,7 @@
         <v>75</v>
       </c>
       <c r="AG5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="17">
@@ -3219,7 +3207,7 @@
         <v>63</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
@@ -3228,7 +3216,7 @@
         <v>54</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -3240,10 +3228,10 @@
         <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s">
         <v>57</v>
@@ -3258,7 +3246,7 @@
         <v>4</v>
       </c>
       <c r="R6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="S6" s="7">
         <v>4</v>
@@ -3270,7 +3258,7 @@
         <v>4</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="W6" s="10">
         <v>9</v>
@@ -3303,7 +3291,7 @@
         <v>75</v>
       </c>
       <c r="AG6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="17">
@@ -3317,10 +3305,10 @@
         <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
         <v>71</v>
@@ -3329,7 +3317,7 @@
         <v>54</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -3341,10 +3329,10 @@
         <v>56</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N7" t="s">
         <v>57</v>
@@ -3359,19 +3347,19 @@
         <v>5</v>
       </c>
       <c r="R7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="S7" s="7">
         <v>5</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U7" s="7">
         <v>5</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="W7" s="11">
         <v>9</v>
@@ -3404,7 +3392,7 @@
         <v>75</v>
       </c>
       <c r="AG7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="17">
@@ -3421,7 +3409,7 @@
         <v>63</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="F8" t="s">
         <v>73</v>
@@ -3430,7 +3418,7 @@
         <v>54</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -3442,10 +3430,10 @@
         <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N8" t="s">
         <v>57</v>
@@ -3505,7 +3493,7 @@
         <v>75</v>
       </c>
       <c r="AG8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:34">

--- a/template_examples/normal_blood_dna_template.xlsx
+++ b/template_examples/normal_blood_dna_template.xlsx
@@ -861,7 +861,7 @@
     <row r="1" ht="16" customHeight="1" thickBot="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#t</t>
+          <t>#title</t>
         </is>
       </c>
       <c r="B1" s="13" t="inlineStr">
@@ -877,7 +877,7 @@
     <row r="2" ht="17" customHeight="1" thickBot="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="3" ht="17" customHeight="1" thickBot="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -917,7 +917,7 @@
     <row r="4" ht="17" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -935,7 +935,7 @@
     <row r="5" ht="17" customHeight="1" thickBot="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -955,7 +955,7 @@
     <row r="6" ht="17" customHeight="1" thickBot="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -975,7 +975,7 @@
     <row r="7" ht="17" customHeight="1" thickBot="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -995,7 +995,7 @@
     <row r="8" ht="16" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1015,7 +1015,7 @@
     <row r="9" ht="16" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -1035,7 +1035,7 @@
     <row r="10" ht="16" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -1055,7 +1055,7 @@
     <row r="11" ht="16" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -1073,7 +1073,7 @@
     <row r="12" ht="16" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -1091,7 +1091,7 @@
     <row r="13" ht="32" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -1111,7 +1111,7 @@
     <row r="14" ht="16" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -1131,7 +1131,7 @@
     <row r="15" ht="16" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -1152,1414 +1152,1414 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#mh</t>
+          <t>#skip</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#h</t>
+          <t>#header</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#mh</t>
+          <t>#skip</t>
         </is>
       </c>
       <c r="B1" s="13" t="inlineStr">
@@ -2676,7 +2676,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#h</t>
+          <t>#header</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="3" ht="17" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2998,7 +2998,7 @@
     <row r="4" ht="17" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3148,7 +3148,7 @@
     <row r="5" ht="17" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3293,7 +3293,7 @@
     <row r="6" ht="17" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3438,7 +3438,7 @@
     <row r="7" ht="17" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3583,7 +3583,7 @@
     <row r="8" ht="17" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3728,1358 +3728,1358 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>

--- a/template_examples/normal_blood_dna_template.xlsx
+++ b/template_examples/normal_blood_dna_template.xlsx
@@ -854,7 +854,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" min="1" max="1"/>
+    <col hidden="1" width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -1148,7 +1148,6 @@
       <c r="E15" s="1" t="n"/>
       <c r="F15" s="1" t="n"/>
     </row>
-    <row r="16"/>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
@@ -2609,7 +2608,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" min="1" max="1"/>
+    <col hidden="1" width="30" customWidth="1" min="1" max="1"/>
     <col width="8.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="12.1640625" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="19.83203125" bestFit="1" customWidth="1" min="4" max="4"/>
